--- a/data/homeloanoutput.xlsx
+++ b/data/homeloanoutput.xlsx
@@ -3,7 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="MaintenanceImpact" sheetId="1" r:id="rId1"/>
+    <sheet name="HomeLoan" sheetId="1" r:id="rId1"/>
+    <sheet name="InsuranceImpact" sheetId="2" r:id="rId2"/>
+    <sheet name="MaintenanceImpact" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -397,6 +399,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Year</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Principal (A)</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Interest (B)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Taxes, Home Insurance &amp; Maintenance (C)</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Total Payment (A+B+C)</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Balance</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Loan Paid to Date</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2025</v>
+      </c>
+      <c r="B2" t="str">
+        <v>₹ 8,106</v>
+      </c>
+      <c r="C2" t="str">
+        <v>₹ 4,349</v>
+      </c>
+      <c r="D2" t="str">
+        <v>₹ 22,500</v>
+      </c>
+      <c r="E2" t="str">
+        <v>₹ 34,955</v>
+      </c>
+      <c r="F2" t="str">
+        <v>₹ 91,894</v>
+      </c>
+      <c r="G2" t="str">
+        <v>8.11%</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2026</v>
+      </c>
+      <c r="B3" t="str">
+        <v>₹ 17,343</v>
+      </c>
+      <c r="C3" t="str">
+        <v>₹ 7,567</v>
+      </c>
+      <c r="D3" t="str">
+        <v>₹ 45,000</v>
+      </c>
+      <c r="E3" t="str">
+        <v>₹ 69,910</v>
+      </c>
+      <c r="F3" t="str">
+        <v>₹ 74,551</v>
+      </c>
+      <c r="G3" t="str">
+        <v>25.45%</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2027</v>
+      </c>
+      <c r="B4" t="str">
+        <v>₹ 18,970</v>
+      </c>
+      <c r="C4" t="str">
+        <v>₹ 5,940</v>
+      </c>
+      <c r="D4" t="str">
+        <v>₹ 45,000</v>
+      </c>
+      <c r="E4" t="str">
+        <v>₹ 69,910</v>
+      </c>
+      <c r="F4" t="str">
+        <v>₹ 55,581</v>
+      </c>
+      <c r="G4" t="str">
+        <v>44.42%</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2028</v>
+      </c>
+      <c r="B5" t="str">
+        <v>₹ 20,750</v>
+      </c>
+      <c r="C5" t="str">
+        <v>₹ 4,160</v>
+      </c>
+      <c r="D5" t="str">
+        <v>₹ 45,000</v>
+      </c>
+      <c r="E5" t="str">
+        <v>₹ 69,910</v>
+      </c>
+      <c r="F5" t="str">
+        <v>₹ 34,831</v>
+      </c>
+      <c r="G5" t="str">
+        <v>65.17%</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2029</v>
+      </c>
+      <c r="B6" t="str">
+        <v>₹ 22,696</v>
+      </c>
+      <c r="C6" t="str">
+        <v>₹ 2,214</v>
+      </c>
+      <c r="D6" t="str">
+        <v>₹ 45,000</v>
+      </c>
+      <c r="E6" t="str">
+        <v>₹ 69,910</v>
+      </c>
+      <c r="F6" t="str">
+        <v>₹ 12,134</v>
+      </c>
+      <c r="G6" t="str">
+        <v>87.87%</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2030</v>
+      </c>
+      <c r="B7" t="str">
+        <v>₹ 12,134</v>
+      </c>
+      <c r="C7" t="str">
+        <v>₹ 321</v>
+      </c>
+      <c r="D7" t="str">
+        <v>₹ 22,500</v>
+      </c>
+      <c r="E7" t="str">
+        <v>₹ 34,955</v>
+      </c>
+      <c r="F7" t="str">
+        <v>₹ 0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>100%</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Year</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Principal (A)</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Interest (B)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Taxes, Home Insurance &amp; Maintenance (C)</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Total Payment (A+B+C)</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Balance</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Loan Paid to Date</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2025</v>
+      </c>
+      <c r="B2" t="str">
+        <v>₹ 11,72,921</v>
+      </c>
+      <c r="C2" t="str">
+        <v>₹ 1,92,113</v>
+      </c>
+      <c r="D2" t="str">
+        <v>₹ 0</v>
+      </c>
+      <c r="E2" t="str">
+        <v>₹ 13,65,034</v>
+      </c>
+      <c r="F2" t="str">
+        <v>₹ 38,32,079</v>
+      </c>
+      <c r="G2" t="str">
+        <v>23.43%</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2026</v>
+      </c>
+      <c r="B3" t="str">
+        <v>₹ 25,00,258</v>
+      </c>
+      <c r="C3" t="str">
+        <v>₹ 2,29,810</v>
+      </c>
+      <c r="D3" t="str">
+        <v>₹ 0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>₹ 27,30,068</v>
+      </c>
+      <c r="F3" t="str">
+        <v>₹ 13,31,822</v>
+      </c>
+      <c r="G3" t="str">
+        <v>73.39%</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2027</v>
+      </c>
+      <c r="B4" t="str">
+        <v>₹ 13,31,822</v>
+      </c>
+      <c r="C4" t="str">
+        <v>₹ 33,212</v>
+      </c>
+      <c r="D4" t="str">
+        <v>₹ 0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>₹ 13,65,034</v>
+      </c>
+      <c r="F4" t="str">
+        <v>₹ 0</v>
+      </c>
+      <c r="G4" t="str">
+        <v>100%</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
